--- a/data.xlsx
+++ b/data.xlsx
@@ -31,31 +31,31 @@
     <t>AirExstTemperature</t>
   </si>
   <si>
-    <t>87 °C</t>
+    <t>84 °C</t>
   </si>
   <si>
     <t>RunTimeHours</t>
   </si>
   <si>
-    <t>5589 Hours</t>
+    <t>5611 Hours</t>
   </si>
   <si>
     <t>LoadTimeInHours</t>
   </si>
   <si>
-    <t>5580 Hours</t>
+    <t>5601 Hours</t>
   </si>
   <si>
     <t>HostAPhaseCurrent</t>
   </si>
   <si>
-    <t>213.2 A</t>
+    <t>205.7 A</t>
   </si>
   <si>
     <t>OilFilterusedtime</t>
   </si>
   <si>
-    <t>1637 Hours</t>
+    <t>1659 Hours</t>
   </si>
   <si>
     <t>OilSeparatorusedtime</t>
@@ -641,7 +641,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="3">
-        <v>45516.31247204861</v>
+        <v>45517.203417743054</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
